--- a/Testprojects/Products.xlsx
+++ b/Testprojects/Products.xlsx
@@ -14,319 +14,319 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
+    <t>Men's Stylish Solid All Day Fresh Buttondown Casual Shirt - Regular Fit | Plain | Full Sleeve | Cotton Semi Formal Wear (Available in Plus Size &amp; Combo Pack)</t>
+  </si>
+  <si>
+    <t>1,599</t>
+  </si>
+  <si>
     <t>Men's Solid Cotton Shirt | Chinese Collar | Casual | Plain | Full Sleeve | Summer-Regular Fit (Available in Plus Size)</t>
   </si>
   <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>Men's Solid Cotton Shirt | Casual | Plain | Full Sleeve | Summer-Regular Fit (Available in Plus Size)</t>
+  </si>
+  <si>
+    <t>Men's Solid 100% Cotton Regular Fit Casual Shirt (Kurta Placket Style)</t>
+  </si>
+  <si>
+    <t>Men's Casual Button Down Shirts Long Sleeve Linen Shirt Fashion Textured Beach Summer Shirt</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>Men's Regular Fit Solid Soft Touch Cotton Casual Shirt with Pocket Design with Spread Collar &amp; Full Sleeves</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>Casual Regular Fit Shirt for Men|| Regular Fit Shirt for Men|| Men Stylish Regular Fit Shirt (Rib-Regular Fit Shirt)</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>Men Small Checkered Slim Fit Cotton Casual Shirt</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>U-Turn Casual Shirt for Men || Shirt for Men Latest Stylish || Men Stylish Shirt || Men Printed Striped Shirt</t>
+  </si>
+  <si>
+    <t>Men's Cotton Blend Mandarin Collar Self One Design Full Sleeve Casual Short Kurta</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>Men's Solid Linen Tailored Fit Button Down Casual Shirt</t>
+  </si>
+  <si>
+    <t>2,449</t>
+  </si>
+  <si>
+    <t>Men's Regular Fit Casual Shirt (5171)</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>Men's Slim Fit 100% Cotton Checkered Formal Shirt</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Men's Regular Fit Poly Popcorn Casual Shirt</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>Men's Everyday Solid Slim Fit Full Sleeve Formal Shirt | Cotton-Rich</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>Men Classic Slim Fit Pure Cotton Casual Shirt</t>
+  </si>
+  <si>
+    <t>Cotton Blend Solid Casual Regular Fit Mandarin/Chinese Collor Short Kurta for Men</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>Men Comfort Slim Fit Opaque Checked Cotton Casual Shirt</t>
+  </si>
+  <si>
+    <t>Men's Stylish Solid Satin Casual Shirt for Men Full Sleeves| Poly Satin Silk Shirt</t>
+  </si>
+  <si>
+    <t>Men's Slim Fit Shirt</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>Men's Checkered Slim Fit Shirt</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Men's Solid Regular Fit Shirt</t>
+  </si>
+  <si>
+    <t>Men's Striped Slim Fit Cotton Casual Shirt</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>Men's Cotton Buffalo Check Slim Fit Casual Shirt with Pocket, Full Sleeve Shirt for Formal &amp; Casual Wear (Also Available in Plus Size)</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>Men Regular Fit Checkered Full Sleeves Spread Collar Casual Shirt</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>Men's Printed Slim Fit Shirt</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>Constant Cotton Thermoregulating Pique Full Shirts</t>
+  </si>
+  <si>
+    <t>1,691</t>
+  </si>
+  <si>
+    <t>Men's Wrinkle-Resistant Regular Fit Cotton Formal Shirt</t>
+  </si>
+  <si>
+    <t>1,849</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Men's Slim Fit Full Sleeve Striped Formal Shirt | Cotton Rich | Wonder Fabric | Pin Point Oxford</t>
+  </si>
+  <si>
+    <t>Slim Fit Cotton Casual Check Shirt for Men</t>
+  </si>
+  <si>
+    <t>Textured Shirts for Men || Casual Shirt for Men || Shirt for Men|| Men Stylish Shirt || Men Fancy Shirt || Men Full Sleeve Shirt || Plain Shirts for Men</t>
+  </si>
+  <si>
+    <t>Men's Classic Slim Fit Full Sleeve Oxford Shirt | 100% Cotton</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>Men Regular Fit Checkered Full Sleeves Cutaway Collar Casual Shirt</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>Men's Slim Fit Micro Checkered Formal Shirt</t>
+  </si>
+  <si>
+    <t>Men's Self-Designed Slim Fit Shirt</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>Men's Jacquard Chain Polo Shirt (2020)</t>
+  </si>
+  <si>
+    <t>U-Turn Casual Shirt for Men|| Shirt for Men|| Stylish Latest Shirt for Men || Printed Checkered Shirt for Men</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>U-TURN Men's Cotton Casual Printed Striped Stylish Latest Shirt for Men</t>
+  </si>
+  <si>
+    <t>Men's Solid Slim Fit Casual Shirt</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>Men's Solid Slim Fit Casual Shirt, Full Sleeve Shirt for Casual Wear &amp; Formal Wear (Also Available in Plus Size)</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>Men's Standard Slim Fit Striped Pure Cotton Casual Shirt</t>
+  </si>
+  <si>
+    <t>Men's Solid Classic Fit Shirt</t>
+  </si>
+  <si>
+    <t>Casual Shirt for Men|| Shirt for Men|| Men Stylish Shirt (Insta-Shirt)</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>Shirt for Men | Mens Casual Shirt | Men Stylish Shirt | Men Polycotton Shirt | Men's Regular Fit | Men Formal Shirt | Men's Solid Slim Fit</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>Trendy Regular Fit Printed Causal Shirt for Men - Pack of 1</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>Cotton Checkered Slim Fit Casual Shirt For Men</t>
+  </si>
+  <si>
+    <t>Slim Fit Small Ditsy Printed Full Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>Men's Regular Fit Shirt</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>Men's Solid Full Sleeve Slim Fit Cutaway Collar Cotton Formal Shirt</t>
+  </si>
+  <si>
+    <t>1,331</t>
+  </si>
+  <si>
+    <t>Solid Slim Fit Full Sleeve Casual Shirt | 100% Cotton</t>
+  </si>
+  <si>
+    <t>Men's Sports Slim Fit Solid Cotton Blend Casual Shirt</t>
+  </si>
+  <si>
+    <t>1,349</t>
+  </si>
+  <si>
+    <t>Plaid: Red, Grey Men and Boys Long Sleeve Collared Neck Button Down Cotton Relaxed Fit Shirts</t>
+  </si>
+  <si>
+    <t>1,499</t>
+  </si>
+  <si>
+    <t>Men's Cotton Full Sleeve Regular Fit Casual Solid Shirt</t>
+  </si>
+  <si>
+    <t>Men's Solid Regular Fit Kurta</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>Men's Slim Fit Printed Formal Shirt</t>
+  </si>
+  <si>
+    <t>Men's Checkered Regular Fit Shirt</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>Men's Checkered Slim Fit Cotton Casual Shirt</t>
+  </si>
+  <si>
     <t>549</t>
   </si>
   <si>
-    <t>Men's Solid Cotton Shirt | Casual | Plain | Full Sleeve | Summer-Regular Fit (Available in Plus Size)</t>
-  </si>
-  <si>
-    <t>Men's Solid 100% Cotton Regular Fit Casual Shirt (Kurta Placket Style)</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>Constant Cotton Thermoregulating Pique Full Shirts</t>
-  </si>
-  <si>
-    <t>1,671</t>
-  </si>
-  <si>
-    <t>Men's Casual Button Down Shirts Long Sleeve Linen Shirt Fashion Textured Beach Summer Shirt</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>Men's Regular Fit Casual Shirt (5171)</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>Men's Regular Fit Solid Soft Touch Cotton Casual Shirt with Pocket Design with Spread Collar &amp; Full Sleeves</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>Casual Regular Fit Shirt for Men|| Regular Fit Shirt for Men|| Men Stylish Regular Fit Shirt (Rib-Regular Fit Shirt)</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>Men Small Checkered Slim Fit Cotton Casual Shirt</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>Casual Shirt for Men Stylish Men's Shirt Soild Regular Fit Long Sleeve Formal Wear Purple</t>
-  </si>
-  <si>
-    <t>U-Turn Casual Shirt for Men || Shirt for Men Latest Stylish || Men Stylish Shirt || Men Printed Striped Shirt</t>
-  </si>
-  <si>
-    <t>Cotton Blend Solid Casual Regular Fit Mandarin/Chinese Collor Short Kurta for Men</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>Men's Regular Fit Poly Popcorn Casual Shirt</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>Men's Cotton Blend Mandarin Collar Self One Design Full Sleeve Casual Short Kurta</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>Men Classic Slim Fit Pure Cotton Casual Shirt</t>
-  </si>
-  <si>
-    <t>Men Comfort Slim Fit Opaque Checked Cotton Casual Shirt</t>
-  </si>
-  <si>
-    <t>Comfort Cotton Slim Fit Checked Casual Shirt for Men</t>
-  </si>
-  <si>
-    <t>Men's Solid Linen Tailored Fit Button Down Casual Shirt</t>
-  </si>
-  <si>
-    <t>2,449</t>
-  </si>
-  <si>
-    <t>Textured Shirts for Men || Casual Shirt for Men || Shirt for Men|| Men Stylish Shirt || Men Fancy Shirt || Men Full Sleeve Shirt || Plain Shirts for Men</t>
-  </si>
-  <si>
-    <t>Shirt for Men | Mens Casual Shirt | Men Stylish Shirt | Men Polycotton Shirt | Men's Regular Fit | Men Formal Shirt | Men's Solid Slim Fit</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>Men's Button Down Collar Slim Fit Casual Shirt</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>Shirt for Men | Mens Casual Shirt | Men Stylish Shirt | Men Printed Shirt | Men's Regular Fit | Men Formal Shirt | Men's Solid Half Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>Men's Solid Regular Fit Shirt</t>
-  </si>
-  <si>
-    <t>Shirt for Men || Shirt for Men Stylish || Shirt for Men Full Sleeve || Shirt for Men</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>Men's Solid Linen Cotton Shirt | Casual | Plain | Full Sleeve | Summer-Regular Fit| Men Stylish Shirt | Everyday Formal Wear</t>
-  </si>
-  <si>
-    <t>Men Regular Fit Checkered Full Sleeves Spread Collar Casual Shirt</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>Men's Wrinkle-Resistant Regular Fit Cotton Formal Shirt</t>
-  </si>
-  <si>
-    <t>1,849</t>
-  </si>
-  <si>
-    <t>1,691</t>
-  </si>
-  <si>
-    <t>Men's Everday Regular Fit Solid Shirt | Cotton Rich | 5-Pin Pocketing</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>Men's Cotton Buffalo Check Slim Fit Casual Shirt with Pocket, Full Sleeve Shirt for Formal &amp; Casual Wear (Also Available in Plus Size)</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Slim Fit Cotton Casual Check Shirt for Men</t>
-  </si>
-  <si>
-    <t>Men's Everyday Solid Slim Fit Full Sleeve Formal Shirt | Cotton-Rich</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>Men's Jacquard Chain Polo Shirt (2020)</t>
-  </si>
-  <si>
-    <t>Men Slim Fit Striped Full Sleeves Cutaway Collar Casual Shirt</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>U-Turn Casual Shirt for Men|| Shirt for Men|| Stylish Latest Shirt for Men || Printed Checkered Shirt for Men</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>Men's Slim Fit Full Sleeve Striped Formal Shirt | Cotton Rich | Wonder Fabric | Pin Point Oxford</t>
-  </si>
-  <si>
-    <t>Trendy Regular Fit Printed Causal Shirt for Men - Pack of 1</t>
-  </si>
-  <si>
-    <t>Men's Slim Fit 100% Cotton Checkered Formal Shirt</t>
-  </si>
-  <si>
-    <t>Men's Solid Regular Fit Kurta</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>Men's Classic Slim Fit Full Sleeve Oxford Shirt | 100% Cotton</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>Men's Stylish Solid Satin Casual Shirt for Men Full Sleeves| Poly Satin Silk Shirt</t>
-  </si>
-  <si>
-    <t>Men's Printed Slim Fit Shirt</t>
-  </si>
-  <si>
-    <t>791</t>
-  </si>
-  <si>
-    <t>Textured Shirts for Men||Regular Fit Casual Shirt for Men||Fancy Shirt||Men Full Sleeve Shirt||Plain Shirts for Men</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>Men Regular Fit Checkered Full Sleeves Cutaway Collar Casual Shirt</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>Solids: Brown Men and Boys Long Sleeve Collared Neck Button Front Regular Fit Utility Shirts</t>
-  </si>
-  <si>
-    <t>1,798</t>
-  </si>
-  <si>
-    <t>Men's Solid Modern Fit Shirt</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>Men's Solid Classic Fit Shirt</t>
-  </si>
-  <si>
-    <t>Men's Slim Fit Shirt</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>Men's Slim Fit Micro Checkered Formal Shirt</t>
-  </si>
-  <si>
-    <t>Plaid: Red, Grey Men and Boys Long Sleeve Collared Neck Button Down Cotton Relaxed Fit Shirts</t>
-  </si>
-  <si>
-    <t>1,499</t>
-  </si>
-  <si>
-    <t>Men's Solid Slim Fit Casual Shirt</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>Men's Solid Slim Fit Casual Shirt, Full Sleeve Shirt for Casual Wear &amp; Formal Wear (Also Available in Plus Size)</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>Men's Self-Designed Slim Fit Shirt</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>Men's Regular Fit Shirt</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>Cotton Checkered Slim Fit Casual Shirt For Men</t>
-  </si>
-  <si>
-    <t>Shirt for Men | Mens Casual Shirt | Men Stylish Shirt | Men Textured Shirt | Men's Regular Fit | Men Formal Ribbed Shirt | Half Sleeve Shirt</t>
-  </si>
-  <si>
-    <t>Men's Solid Regular Fit Button Down Shirt</t>
-  </si>
-  <si>
-    <t>1,599</t>
-  </si>
-  <si>
-    <t>Men Box Checkered Slim Fit Cotton Casual Shirt</t>
-  </si>
-  <si>
-    <t>Men's Standard Slim Fit Striped Pure Cotton Casual Shirt</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>Printed Shirt for Men || Printed Shirt for Men Stylish || Printed Shirt for Men Full Sleeve || Printed Shirt for Men||CBPSHIRT-02</t>
-  </si>
-  <si>
-    <t>Mens Long Sleeve Button Down White Shirt for Men Collared Casual Formal Soild Shirt</t>
-  </si>
-  <si>
-    <t>Solid Slim Fit Casual Shirt for Men</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>Shirt for Man | Men's Regular Fit Casual Shirt | Shirt | Shirt for Men | Old Money Shirt for Men</t>
-  </si>
-  <si>
-    <t>Men's Casual Cotton Poplin Shirt (Regular Fit)</t>
-  </si>
-  <si>
-    <t>1,049</t>
+    <t>Men's Slim Fit Casual Shirts</t>
+  </si>
+  <si>
+    <t>Men's Casual Denim Cotton Shirt (SIGDENIMM)</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>Men's Slim Fit Casual Shirt</t>
+  </si>
+  <si>
+    <t>Shirt for Men Cotton Spraed Collar Long Sleeve Casual Shirt Formal Shirt Regular Fit Shirt</t>
+  </si>
+  <si>
+    <t>Men's Solid Cotton Formal Shirt | Plain | Full Sleeve-Regular Fit (Available in Plus Size)</t>
+  </si>
+  <si>
+    <t>100% Cotton Big/Buffalo Checks Half Sleeves Regular Fit Formal Shirt for Men</t>
+  </si>
+  <si>
+    <t>899</t>
   </si>
 </sst>
 </file>
@@ -390,15 +390,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -406,63 +406,63 @@
         <v>5</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>7</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -494,63 +494,63 @@
         <v>25</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -558,39 +558,39 @@
         <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -598,63 +598,63 @@
         <v>5</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -670,15 +670,15 @@
         <v>57</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>47</v>
       </c>
     </row>
     <row r="40">
@@ -686,7 +686,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -694,15 +694,15 @@
         <v>61</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>62</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -718,12 +718,12 @@
         <v>66</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>68</v>
@@ -734,159 +734,159 @@
         <v>69</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
@@ -894,47 +894,47 @@
         <v>100</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
